--- a/data/DBbanks/Quality control.xlsx
+++ b/data/DBbanks/Quality control.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/InvUNL/capitalEffects/data/DBbanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/UWA PhD/bankFailure/data/DBbanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{886A062B-FDD3-4D50-B6C9-238CAC80D689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D3F24CA-D9E6-4565-9BEE-01754C07F3F9}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{886A062B-FDD3-4D50-B6C9-238CAC80D689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8238651A-CAF4-4757-9AC4-E1CC9ED6D0A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{55F8BC5E-096C-4E1E-A798-514255AB586E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{55F8BC5E-096C-4E1E-A798-514255AB586E}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs" sheetId="2" r:id="rId1"/>
-    <sheet name="Missing" sheetId="4" r:id="rId2"/>
-    <sheet name="Merges" sheetId="1" r:id="rId3"/>
-    <sheet name="NonConflict" sheetId="3" r:id="rId4"/>
+    <sheet name="PNtotal" sheetId="5" r:id="rId2"/>
+    <sheet name="codebook" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Missing" sheetId="4" r:id="rId5"/>
+    <sheet name="Merges" sheetId="1" r:id="rId6"/>
+    <sheet name="NonConflict" sheetId="3" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9694" uniqueCount="4811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9700" uniqueCount="4815">
   <si>
     <t>C:\Users\emi.ABLE-22868\OneDrive\InvUNL\capitalEffects\data\Dbbanks\capital-allEntities-Monthly.dta</t>
   </si>
@@ -14516,6 +14544,18 @@
   </si>
   <si>
     <t>C8_E-1995-2020.dta</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>codebook Pntotal</t>
+  </si>
+  <si>
+    <t>Ident with missing values in Pntotal</t>
+  </si>
+  <si>
+    <t>ampnetear</t>
   </si>
 </sst>
 </file>
@@ -14568,7 +14608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -14577,6 +14617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14592,6 +14633,2057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="entsDates"/>
+      <sheetName val="code"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>35521</v>
+          </cell>
+          <cell r="D2">
+            <v>35977</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>3</v>
+          </cell>
+          <cell r="C3">
+            <v>35521</v>
+          </cell>
+          <cell r="D3">
+            <v>37956</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5</v>
+          </cell>
+          <cell r="C4">
+            <v>35521</v>
+          </cell>
+          <cell r="D4">
+            <v>42248</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="C5">
+            <v>35521</v>
+          </cell>
+          <cell r="D5">
+            <v>36678</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7</v>
+          </cell>
+          <cell r="C6">
+            <v>35521</v>
+          </cell>
+          <cell r="D6">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>10</v>
+          </cell>
+          <cell r="C7">
+            <v>35521</v>
+          </cell>
+          <cell r="D7">
+            <v>38412</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>11</v>
+          </cell>
+          <cell r="C8">
+            <v>35521</v>
+          </cell>
+          <cell r="D8">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>12</v>
+          </cell>
+          <cell r="C9">
+            <v>35521</v>
+          </cell>
+          <cell r="D9">
+            <v>35765</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>14</v>
+          </cell>
+          <cell r="C10">
+            <v>35490</v>
+          </cell>
+          <cell r="D10">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>15</v>
+          </cell>
+          <cell r="C11">
+            <v>35521</v>
+          </cell>
+          <cell r="D11">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>16</v>
+          </cell>
+          <cell r="C12">
+            <v>35521</v>
+          </cell>
+          <cell r="D12">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>17</v>
+          </cell>
+          <cell r="C13">
+            <v>35521</v>
+          </cell>
+          <cell r="D13">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>18</v>
+          </cell>
+          <cell r="C14">
+            <v>35521</v>
+          </cell>
+          <cell r="D14">
+            <v>43525</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>20</v>
+          </cell>
+          <cell r="C15">
+            <v>35431</v>
+          </cell>
+          <cell r="D15">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>25</v>
+          </cell>
+          <cell r="C16">
+            <v>35521</v>
+          </cell>
+          <cell r="D16">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>27</v>
+          </cell>
+          <cell r="C17">
+            <v>35521</v>
+          </cell>
+          <cell r="D17">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>29</v>
+          </cell>
+          <cell r="C18">
+            <v>35521</v>
+          </cell>
+          <cell r="D18">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>34</v>
+          </cell>
+          <cell r="C19">
+            <v>35521</v>
+          </cell>
+          <cell r="D19">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>39</v>
+          </cell>
+          <cell r="C20">
+            <v>35521</v>
+          </cell>
+          <cell r="D20">
+            <v>36312</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>42</v>
+          </cell>
+          <cell r="C21">
+            <v>35521</v>
+          </cell>
+          <cell r="D21">
+            <v>37226</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>43</v>
+          </cell>
+          <cell r="C22">
+            <v>35521</v>
+          </cell>
+          <cell r="D22">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>44</v>
+          </cell>
+          <cell r="C23">
+            <v>35490</v>
+          </cell>
+          <cell r="D23">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>45</v>
+          </cell>
+          <cell r="C24">
+            <v>35521</v>
+          </cell>
+          <cell r="D24">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>46</v>
+          </cell>
+          <cell r="C25">
+            <v>35521</v>
+          </cell>
+          <cell r="D25">
+            <v>42248</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>49</v>
+          </cell>
+          <cell r="C26">
+            <v>35400</v>
+          </cell>
+          <cell r="D26">
+            <v>35977</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>50</v>
+          </cell>
+          <cell r="C27">
+            <v>35521</v>
+          </cell>
+          <cell r="D27">
+            <v>36678</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>54</v>
+          </cell>
+          <cell r="C28">
+            <v>35521</v>
+          </cell>
+          <cell r="D28">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>56</v>
+          </cell>
+          <cell r="C29">
+            <v>35490</v>
+          </cell>
+          <cell r="D29">
+            <v>35674</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>59</v>
+          </cell>
+          <cell r="C30">
+            <v>35521</v>
+          </cell>
+          <cell r="D30">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>60</v>
+          </cell>
+          <cell r="C31">
+            <v>35521</v>
+          </cell>
+          <cell r="D31">
+            <v>43709</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>61</v>
+          </cell>
+          <cell r="C32">
+            <v>35521</v>
+          </cell>
+          <cell r="D32">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>62</v>
+          </cell>
+          <cell r="C33">
+            <v>35521</v>
+          </cell>
+          <cell r="D33">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>65</v>
+          </cell>
+          <cell r="C34">
+            <v>35521</v>
+          </cell>
+          <cell r="D34">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>66</v>
+          </cell>
+          <cell r="C35">
+            <v>35521</v>
+          </cell>
+          <cell r="D35">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>67</v>
+          </cell>
+          <cell r="C36">
+            <v>35521</v>
+          </cell>
+          <cell r="D36">
+            <v>37865</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>71</v>
+          </cell>
+          <cell r="C37">
+            <v>35400</v>
+          </cell>
+          <cell r="D37">
+            <v>36220</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>72</v>
+          </cell>
+          <cell r="C38">
+            <v>35521</v>
+          </cell>
+          <cell r="D38">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>75</v>
+          </cell>
+          <cell r="C39">
+            <v>35490</v>
+          </cell>
+          <cell r="D39">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>79</v>
+          </cell>
+          <cell r="C40">
+            <v>35521</v>
+          </cell>
+          <cell r="D40">
+            <v>40422</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>81</v>
+          </cell>
+          <cell r="C41">
+            <v>35521</v>
+          </cell>
+          <cell r="D41">
+            <v>36220</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>83</v>
+          </cell>
+          <cell r="C42">
+            <v>35490</v>
+          </cell>
+          <cell r="D42">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>86</v>
+          </cell>
+          <cell r="C43">
+            <v>35431</v>
+          </cell>
+          <cell r="D43">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>92</v>
+          </cell>
+          <cell r="C44">
+            <v>35490</v>
+          </cell>
+          <cell r="D44">
+            <v>36861</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>93</v>
+          </cell>
+          <cell r="C45">
+            <v>35521</v>
+          </cell>
+          <cell r="D45">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>94</v>
+          </cell>
+          <cell r="C46">
+            <v>35370</v>
+          </cell>
+          <cell r="D46">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>97</v>
+          </cell>
+          <cell r="C47">
+            <v>35521</v>
+          </cell>
+          <cell r="D47">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>107</v>
+          </cell>
+          <cell r="C48">
+            <v>35521</v>
+          </cell>
+          <cell r="D48">
+            <v>35765</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>113</v>
+          </cell>
+          <cell r="C49">
+            <v>35521</v>
+          </cell>
+          <cell r="D49">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>128</v>
+          </cell>
+          <cell r="C50">
+            <v>35490</v>
+          </cell>
+          <cell r="D50">
+            <v>35490</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>133</v>
+          </cell>
+          <cell r="C51">
+            <v>35521</v>
+          </cell>
+          <cell r="D51">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>137</v>
+          </cell>
+          <cell r="C52">
+            <v>35521</v>
+          </cell>
+          <cell r="D52">
+            <v>38596</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>141</v>
+          </cell>
+          <cell r="C53">
+            <v>35521</v>
+          </cell>
+          <cell r="D53">
+            <v>36586</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>143</v>
+          </cell>
+          <cell r="C54">
+            <v>43344</v>
+          </cell>
+          <cell r="D54">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>147</v>
+          </cell>
+          <cell r="C55">
+            <v>35521</v>
+          </cell>
+          <cell r="D55">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>148</v>
+          </cell>
+          <cell r="C56">
+            <v>35521</v>
+          </cell>
+          <cell r="D56">
+            <v>37622</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>149</v>
+          </cell>
+          <cell r="C57">
+            <v>35490</v>
+          </cell>
+          <cell r="D57">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>150</v>
+          </cell>
+          <cell r="C58">
+            <v>35521</v>
+          </cell>
+          <cell r="D58">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>153</v>
+          </cell>
+          <cell r="C59">
+            <v>35521</v>
+          </cell>
+          <cell r="D59">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>156</v>
+          </cell>
+          <cell r="C60">
+            <v>35521</v>
+          </cell>
+          <cell r="D60">
+            <v>35582</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>161</v>
+          </cell>
+          <cell r="C61">
+            <v>35490</v>
+          </cell>
+          <cell r="D61">
+            <v>35490</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>162</v>
+          </cell>
+          <cell r="C62">
+            <v>35521</v>
+          </cell>
+          <cell r="D62">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>165</v>
+          </cell>
+          <cell r="C63">
+            <v>35521</v>
+          </cell>
+          <cell r="D63">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>167</v>
+          </cell>
+          <cell r="C64">
+            <v>35521</v>
+          </cell>
+          <cell r="D64">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>175</v>
+          </cell>
+          <cell r="C65">
+            <v>35521</v>
+          </cell>
+          <cell r="D65">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>178</v>
+          </cell>
+          <cell r="C66">
+            <v>35521</v>
+          </cell>
+          <cell r="D66">
+            <v>37135</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>179</v>
+          </cell>
+          <cell r="C67">
+            <v>35521</v>
+          </cell>
+          <cell r="D67">
+            <v>36039</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>191</v>
+          </cell>
+          <cell r="C68">
+            <v>35521</v>
+          </cell>
+          <cell r="D68">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>198</v>
+          </cell>
+          <cell r="C69">
+            <v>35521</v>
+          </cell>
+          <cell r="D69">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>229</v>
+          </cell>
+          <cell r="C70">
+            <v>35521</v>
+          </cell>
+          <cell r="D70">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>231</v>
+          </cell>
+          <cell r="C71">
+            <v>35521</v>
+          </cell>
+          <cell r="D71">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>236</v>
+          </cell>
+          <cell r="C72">
+            <v>35521</v>
+          </cell>
+          <cell r="D72">
+            <v>37226</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>247</v>
+          </cell>
+          <cell r="C73">
+            <v>35521</v>
+          </cell>
+          <cell r="D73">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>249</v>
+          </cell>
+          <cell r="C74">
+            <v>35521</v>
+          </cell>
+          <cell r="D74">
+            <v>35977</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>253</v>
+          </cell>
+          <cell r="C75">
+            <v>35521</v>
+          </cell>
+          <cell r="D75">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>254</v>
+          </cell>
+          <cell r="C76">
+            <v>35521</v>
+          </cell>
+          <cell r="D76">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>255</v>
+          </cell>
+          <cell r="C77">
+            <v>35521</v>
+          </cell>
+          <cell r="D77">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>256</v>
+          </cell>
+          <cell r="C78">
+            <v>35521</v>
+          </cell>
+          <cell r="D78">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>259</v>
+          </cell>
+          <cell r="C79">
+            <v>35521</v>
+          </cell>
+          <cell r="D79">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>260</v>
+          </cell>
+          <cell r="C80">
+            <v>35521</v>
+          </cell>
+          <cell r="D80">
+            <v>37591</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>262</v>
+          </cell>
+          <cell r="C81">
+            <v>35521</v>
+          </cell>
+          <cell r="D81">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>265</v>
+          </cell>
+          <cell r="C82">
+            <v>35521</v>
+          </cell>
+          <cell r="D82">
+            <v>39052</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>266</v>
+          </cell>
+          <cell r="C83">
+            <v>35521</v>
+          </cell>
+          <cell r="D83">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>267</v>
+          </cell>
+          <cell r="C84">
+            <v>35521</v>
+          </cell>
+          <cell r="D84">
+            <v>36770</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>268</v>
+          </cell>
+          <cell r="C85">
+            <v>35370</v>
+          </cell>
+          <cell r="D85">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>269</v>
+          </cell>
+          <cell r="C86">
+            <v>35521</v>
+          </cell>
+          <cell r="D86">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>271</v>
+          </cell>
+          <cell r="C87">
+            <v>35521</v>
+          </cell>
+          <cell r="D87">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>273</v>
+          </cell>
+          <cell r="C88">
+            <v>35521</v>
+          </cell>
+          <cell r="D88">
+            <v>35977</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>275</v>
+          </cell>
+          <cell r="C89">
+            <v>35521</v>
+          </cell>
+          <cell r="D89">
+            <v>36495</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>277</v>
+          </cell>
+          <cell r="C90">
+            <v>35521</v>
+          </cell>
+          <cell r="D90">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>280</v>
+          </cell>
+          <cell r="C91">
+            <v>35521</v>
+          </cell>
+          <cell r="D91">
+            <v>36586</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>281</v>
+          </cell>
+          <cell r="C92">
+            <v>35521</v>
+          </cell>
+          <cell r="D92">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>285</v>
+          </cell>
+          <cell r="C93">
+            <v>35521</v>
+          </cell>
+          <cell r="D93">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>287</v>
+          </cell>
+          <cell r="C94">
+            <v>35521</v>
+          </cell>
+          <cell r="D94">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>293</v>
+          </cell>
+          <cell r="C95">
+            <v>35521</v>
+          </cell>
+          <cell r="D95">
+            <v>39692</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>294</v>
+          </cell>
+          <cell r="C96">
+            <v>35521</v>
+          </cell>
+          <cell r="D96">
+            <v>39142</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>295</v>
+          </cell>
+          <cell r="C97">
+            <v>35521</v>
+          </cell>
+          <cell r="D97">
+            <v>42156</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>297</v>
+          </cell>
+          <cell r="C98">
+            <v>35521</v>
+          </cell>
+          <cell r="D98">
+            <v>39234</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>299</v>
+          </cell>
+          <cell r="C99">
+            <v>35521</v>
+          </cell>
+          <cell r="D99">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>300</v>
+          </cell>
+          <cell r="C100">
+            <v>35521</v>
+          </cell>
+          <cell r="D100">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>301</v>
+          </cell>
+          <cell r="C101">
+            <v>35521</v>
+          </cell>
+          <cell r="D101">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>303</v>
+          </cell>
+          <cell r="C102">
+            <v>35521</v>
+          </cell>
+          <cell r="D102">
+            <v>43070</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>305</v>
+          </cell>
+          <cell r="C103">
+            <v>35521</v>
+          </cell>
+          <cell r="D103">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>306</v>
+          </cell>
+          <cell r="C104">
+            <v>35521</v>
+          </cell>
+          <cell r="D104">
+            <v>41609</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>307</v>
+          </cell>
+          <cell r="C105">
+            <v>35521</v>
+          </cell>
+          <cell r="D105">
+            <v>35977</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>308</v>
+          </cell>
+          <cell r="C106">
+            <v>35521</v>
+          </cell>
+          <cell r="D106">
+            <v>36586</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>309</v>
+          </cell>
+          <cell r="C107">
+            <v>35521</v>
+          </cell>
+          <cell r="D107">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>310</v>
+          </cell>
+          <cell r="C108">
+            <v>35521</v>
+          </cell>
+          <cell r="D108">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>311</v>
+          </cell>
+          <cell r="C109">
+            <v>35521</v>
+          </cell>
+          <cell r="D109">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>312</v>
+          </cell>
+          <cell r="C110">
+            <v>35521</v>
+          </cell>
+          <cell r="D110">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>313</v>
+          </cell>
+          <cell r="C111">
+            <v>35521</v>
+          </cell>
+          <cell r="D111">
+            <v>35674</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>314</v>
+          </cell>
+          <cell r="C112">
+            <v>35521</v>
+          </cell>
+          <cell r="D112">
+            <v>37408</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>315</v>
+          </cell>
+          <cell r="C113">
+            <v>35521</v>
+          </cell>
+          <cell r="D113">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>316</v>
+          </cell>
+          <cell r="C114">
+            <v>35521</v>
+          </cell>
+          <cell r="D114">
+            <v>35674</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>317</v>
+          </cell>
+          <cell r="C115">
+            <v>35521</v>
+          </cell>
+          <cell r="D115">
+            <v>37561</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>318</v>
+          </cell>
+          <cell r="C116">
+            <v>35521</v>
+          </cell>
+          <cell r="D116">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>319</v>
+          </cell>
+          <cell r="C117">
+            <v>35521</v>
+          </cell>
+          <cell r="D117">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>320</v>
+          </cell>
+          <cell r="C118">
+            <v>35370</v>
+          </cell>
+          <cell r="D118">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>321</v>
+          </cell>
+          <cell r="C119">
+            <v>35521</v>
+          </cell>
+          <cell r="D119">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>322</v>
+          </cell>
+          <cell r="C120">
+            <v>35582</v>
+          </cell>
+          <cell r="D120">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>323</v>
+          </cell>
+          <cell r="C121">
+            <v>35674</v>
+          </cell>
+          <cell r="D121">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>324</v>
+          </cell>
+          <cell r="C122">
+            <v>35855</v>
+          </cell>
+          <cell r="D122">
+            <v>36678</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>325</v>
+          </cell>
+          <cell r="C123">
+            <v>35855</v>
+          </cell>
+          <cell r="D123">
+            <v>42979</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>326</v>
+          </cell>
+          <cell r="C124">
+            <v>35977</v>
+          </cell>
+          <cell r="D124">
+            <v>36951</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>327</v>
+          </cell>
+          <cell r="C125">
+            <v>36039</v>
+          </cell>
+          <cell r="D125">
+            <v>37226</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>328</v>
+          </cell>
+          <cell r="C126">
+            <v>35977</v>
+          </cell>
+          <cell r="D126">
+            <v>36312</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>329</v>
+          </cell>
+          <cell r="C127">
+            <v>35977</v>
+          </cell>
+          <cell r="D127">
+            <v>37226</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>330</v>
+          </cell>
+          <cell r="C128">
+            <v>36220</v>
+          </cell>
+          <cell r="D128">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>331</v>
+          </cell>
+          <cell r="C129">
+            <v>36130</v>
+          </cell>
+          <cell r="D129">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>332</v>
+          </cell>
+          <cell r="C130">
+            <v>36130</v>
+          </cell>
+          <cell r="D130">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>335</v>
+          </cell>
+          <cell r="C131">
+            <v>36495</v>
+          </cell>
+          <cell r="D131">
+            <v>40238</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>336</v>
+          </cell>
+          <cell r="C132">
+            <v>36586</v>
+          </cell>
+          <cell r="D132">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>337</v>
+          </cell>
+          <cell r="C133">
+            <v>36586</v>
+          </cell>
+          <cell r="D133">
+            <v>38047</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>338</v>
+          </cell>
+          <cell r="C134">
+            <v>36586</v>
+          </cell>
+          <cell r="D134">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>339</v>
+          </cell>
+          <cell r="C135">
+            <v>36678</v>
+          </cell>
+          <cell r="D135">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>340</v>
+          </cell>
+          <cell r="C136">
+            <v>36770</v>
+          </cell>
+          <cell r="D136">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>341</v>
+          </cell>
+          <cell r="C137">
+            <v>39508</v>
+          </cell>
+          <cell r="D137">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>384</v>
+          </cell>
+          <cell r="C138">
+            <v>43252</v>
+          </cell>
+          <cell r="D138">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>386</v>
+          </cell>
+          <cell r="C139">
+            <v>37257</v>
+          </cell>
+          <cell r="D139">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>387</v>
+          </cell>
+          <cell r="C140">
+            <v>37257</v>
+          </cell>
+          <cell r="D140">
+            <v>39326</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>388</v>
+          </cell>
+          <cell r="C141">
+            <v>37257</v>
+          </cell>
+          <cell r="D141">
+            <v>39965</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>389</v>
+          </cell>
+          <cell r="C142">
+            <v>37561</v>
+          </cell>
+          <cell r="D142">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>426</v>
+          </cell>
+          <cell r="C143">
+            <v>41244</v>
+          </cell>
+          <cell r="D143">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>430</v>
+          </cell>
+          <cell r="C144">
+            <v>38869</v>
+          </cell>
+          <cell r="D144">
+            <v>39142</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>431</v>
+          </cell>
+          <cell r="C145">
+            <v>41609</v>
+          </cell>
+          <cell r="D145">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>432</v>
+          </cell>
+          <cell r="C146">
+            <v>42522</v>
+          </cell>
+          <cell r="D146">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>435</v>
+          </cell>
+          <cell r="C147">
+            <v>43709</v>
+          </cell>
+          <cell r="D147">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>448</v>
+          </cell>
+          <cell r="C148">
+            <v>43862</v>
+          </cell>
+          <cell r="D148">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>515</v>
+          </cell>
+          <cell r="C149">
+            <v>43800</v>
+          </cell>
+          <cell r="D149">
+            <v>43831</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>44001</v>
+          </cell>
+          <cell r="C150">
+            <v>35521</v>
+          </cell>
+          <cell r="D150">
+            <v>35855</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>44019</v>
+          </cell>
+          <cell r="C151">
+            <v>35521</v>
+          </cell>
+          <cell r="D151">
+            <v>37956</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>44032</v>
+          </cell>
+          <cell r="C152">
+            <v>35521</v>
+          </cell>
+          <cell r="D152">
+            <v>36404</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>44034</v>
+          </cell>
+          <cell r="C153">
+            <v>35521</v>
+          </cell>
+          <cell r="D153">
+            <v>38047</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>44059</v>
+          </cell>
+          <cell r="C154">
+            <v>35521</v>
+          </cell>
+          <cell r="D154">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>44068</v>
+          </cell>
+          <cell r="C155">
+            <v>35521</v>
+          </cell>
+          <cell r="D155">
+            <v>42430</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>44077</v>
+          </cell>
+          <cell r="C156">
+            <v>35521</v>
+          </cell>
+          <cell r="D156">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>44086</v>
+          </cell>
+          <cell r="C157">
+            <v>35521</v>
+          </cell>
+          <cell r="D157">
+            <v>37377</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>44087</v>
+          </cell>
+          <cell r="C158">
+            <v>35521</v>
+          </cell>
+          <cell r="D158">
+            <v>36130</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>44088</v>
+          </cell>
+          <cell r="C159">
+            <v>35521</v>
+          </cell>
+          <cell r="D159">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>44089</v>
+          </cell>
+          <cell r="C160">
+            <v>35490</v>
+          </cell>
+          <cell r="D160">
+            <v>35490</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>44090</v>
+          </cell>
+          <cell r="C161">
+            <v>36404</v>
+          </cell>
+          <cell r="D161">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>44091</v>
+          </cell>
+          <cell r="C162">
+            <v>36404</v>
+          </cell>
+          <cell r="D162">
+            <v>40148</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>44092</v>
+          </cell>
+          <cell r="C163">
+            <v>36586</v>
+          </cell>
+          <cell r="D163">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>44093</v>
+          </cell>
+          <cell r="C164">
+            <v>36586</v>
+          </cell>
+          <cell r="D164">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>44094</v>
+          </cell>
+          <cell r="C165">
+            <v>36586</v>
+          </cell>
+          <cell r="D165">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>44095</v>
+          </cell>
+          <cell r="C166">
+            <v>36678</v>
+          </cell>
+          <cell r="D166">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>44096</v>
+          </cell>
+          <cell r="C167">
+            <v>36678</v>
+          </cell>
+          <cell r="D167">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>44097</v>
+          </cell>
+          <cell r="C168">
+            <v>37226</v>
+          </cell>
+          <cell r="D168">
+            <v>37956</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>44098</v>
+          </cell>
+          <cell r="C169">
+            <v>37257</v>
+          </cell>
+          <cell r="D169">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>44099</v>
+          </cell>
+          <cell r="C170">
+            <v>38412</v>
+          </cell>
+          <cell r="D170">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>44100</v>
+          </cell>
+          <cell r="C171">
+            <v>41518</v>
+          </cell>
+          <cell r="D171">
+            <v>43800</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>45008</v>
+          </cell>
+          <cell r="C172">
+            <v>35521</v>
+          </cell>
+          <cell r="D172">
+            <v>36678</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>45056</v>
+          </cell>
+          <cell r="C173">
+            <v>35521</v>
+          </cell>
+          <cell r="D173">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>45065</v>
+          </cell>
+          <cell r="C174">
+            <v>35521</v>
+          </cell>
+          <cell r="D174">
+            <v>39417</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>45072</v>
+          </cell>
+          <cell r="C175">
+            <v>35521</v>
+          </cell>
+          <cell r="D175">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>45085</v>
+          </cell>
+          <cell r="C176">
+            <v>35521</v>
+          </cell>
+          <cell r="D176">
+            <v>36586</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>45118</v>
+          </cell>
+          <cell r="C177">
+            <v>35521</v>
+          </cell>
+          <cell r="D177">
+            <v>38412</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>64025</v>
+          </cell>
+          <cell r="C178">
+            <v>35521</v>
+          </cell>
+          <cell r="D178">
+            <v>36951</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>64029</v>
+          </cell>
+          <cell r="C179">
+            <v>35521</v>
+          </cell>
+          <cell r="D179">
+            <v>37135</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>64085</v>
+          </cell>
+          <cell r="C180">
+            <v>35521</v>
+          </cell>
+          <cell r="D180">
+            <v>41518</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>64119</v>
+          </cell>
+          <cell r="C181">
+            <v>35521</v>
+          </cell>
+          <cell r="D181">
+            <v>36495</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>64123</v>
+          </cell>
+          <cell r="C182">
+            <v>35521</v>
+          </cell>
+          <cell r="D182">
+            <v>37135</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>64124</v>
+          </cell>
+          <cell r="C183">
+            <v>35521</v>
+          </cell>
+          <cell r="D183">
+            <v>37226</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>65201</v>
+          </cell>
+          <cell r="C184">
+            <v>35521</v>
+          </cell>
+          <cell r="D184">
+            <v>36220</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>65203</v>
+          </cell>
+          <cell r="C185">
+            <v>35521</v>
+          </cell>
+          <cell r="D185">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>94026</v>
+          </cell>
+          <cell r="C186">
+            <v>35490</v>
+          </cell>
+          <cell r="D186">
+            <v>35855</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14893,7 +16985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC944B-0D99-4B04-A84F-AEA69C21201A}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -22115,6 +24207,5688 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376B1943-23EB-4683-8387-297DA0086C57}">
+  <dimension ref="B3:C803"/>
+  <sheetViews>
+    <sheetView topLeftCell="A788" workbookViewId="0">
+      <selection activeCell="B799" sqref="B799"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4:C101">_xlfn.UNIQUE(B4:B803,FALSE)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>94026</v>
+      </c>
+      <c r="C10">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>66</v>
+      </c>
+      <c r="C24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>107</v>
+      </c>
+      <c r="C29">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>141</v>
+      </c>
+      <c r="C33">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>149</v>
+      </c>
+      <c r="C35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>153</v>
+      </c>
+      <c r="C36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>156</v>
+      </c>
+      <c r="C37">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>161</v>
+      </c>
+      <c r="C38">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>162</v>
+      </c>
+      <c r="C39">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>167</v>
+      </c>
+      <c r="C40">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>178</v>
+      </c>
+      <c r="C42">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>179</v>
+      </c>
+      <c r="C43">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>229</v>
+      </c>
+      <c r="C44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>231</v>
+      </c>
+      <c r="C45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>236</v>
+      </c>
+      <c r="C46">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>249</v>
+      </c>
+      <c r="C47">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>253</v>
+      </c>
+      <c r="C48">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>255</v>
+      </c>
+      <c r="C49">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>256</v>
+      </c>
+      <c r="C50">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>260</v>
+      </c>
+      <c r="C51">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>267</v>
+      </c>
+      <c r="C52">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>271</v>
+      </c>
+      <c r="C53">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>273</v>
+      </c>
+      <c r="C54">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>275</v>
+      </c>
+      <c r="C55">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>280</v>
+      </c>
+      <c r="C56">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>287</v>
+      </c>
+      <c r="C57">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>307</v>
+      </c>
+      <c r="C58">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>308</v>
+      </c>
+      <c r="C59">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>313</v>
+      </c>
+      <c r="C60">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>314</v>
+      </c>
+      <c r="C61">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>316</v>
+      </c>
+      <c r="C62">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>317</v>
+      </c>
+      <c r="C63">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>318</v>
+      </c>
+      <c r="C64">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>44001</v>
+      </c>
+      <c r="C65">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>44032</v>
+      </c>
+      <c r="C66">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>44086</v>
+      </c>
+      <c r="C67">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>44087</v>
+      </c>
+      <c r="C68">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>44089</v>
+      </c>
+      <c r="C69">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>45008</v>
+      </c>
+      <c r="C70">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>45085</v>
+      </c>
+      <c r="C71">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>64025</v>
+      </c>
+      <c r="C72">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>64029</v>
+      </c>
+      <c r="C73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>64119</v>
+      </c>
+      <c r="C74">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>64123</v>
+      </c>
+      <c r="C75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>64124</v>
+      </c>
+      <c r="C76">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>65201</v>
+      </c>
+      <c r="C77">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>94026</v>
+      </c>
+      <c r="C78">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>42</v>
+      </c>
+      <c r="C84">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>43</v>
+      </c>
+      <c r="C85">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>54</v>
+      </c>
+      <c r="C88">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>56</v>
+      </c>
+      <c r="C89">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>59</v>
+      </c>
+      <c r="C90">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>62</v>
+      </c>
+      <c r="C92">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>67</v>
+      </c>
+      <c r="C94">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>75</v>
+      </c>
+      <c r="C95">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>107</v>
+      </c>
+      <c r="C97">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>113</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>128</v>
+      </c>
+      <c r="C99">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>133</v>
+      </c>
+      <c r="C100">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>141</v>
+      </c>
+      <c r="C101">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B303">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B307">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B308">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B309">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B310">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B311">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B312">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B313">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B314">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B315">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B316">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B317">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B318">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B319">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B320">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B321">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B322">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B323">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B324">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B325">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B326">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B327">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B328">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B329">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B330">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B331">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B332">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B333">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B334">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B335">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B336">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B337">
+        <v>94026</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B341">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B342">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B343">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B344">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B345">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B346">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B347">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B348">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B349">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B350">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B351">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B352">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B353">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B354">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B355">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B356">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B357">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B358">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B359">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B360">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B361">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B362">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B363">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B364">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B365">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B366">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B367">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B368">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B369">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B370">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B371">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B372">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B373">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B374">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B375">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B376">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B377">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B378">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B379">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B380">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B381">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B382">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B383">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B384">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B385">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B386">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B387">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B388">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B389">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B390">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B391">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B392">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B393">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B394">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B395">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B396">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B397">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B398">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B399">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B400">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B401">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B402">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B403">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B404">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B405">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B406">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B407">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B408">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B409">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B410">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B411">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B412">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B413">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B414">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B415">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B416">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B417">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B418">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B419">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B420">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B421">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B422">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B423">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B424">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B425">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B426">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B427">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B428">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B429">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B430">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B431">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B432">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B433">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B434">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B435">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B436">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B437">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B438">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B439">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B440">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B441">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B442">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B443">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B444">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B445">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B446">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B447">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B448">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B449">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B450">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B451">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B452">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B454">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B455">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B456">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B457">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B458">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B459">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B460">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B461">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B462">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B463">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B464">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B465">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B466">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B467">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B468">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B470">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B471">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B472">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B473">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B474">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B475">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B476">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B477">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B478">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B479">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B480">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B481">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B482">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B483">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B484">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B485">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B486">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B487">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B488">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B489">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B490">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B491">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B492">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B493">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B494">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B495">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B496">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B497">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B498">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B499">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B500">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B501">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B502">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B503">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B504">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B505">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B506">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B507">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B508">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B509">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B510">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B511">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B512">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B513">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B514">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B515">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B516">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B517">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B518">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B519">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B520">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B521">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B522">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B523">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B524">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B525">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B526">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B527">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B528">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B529">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B530">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B531">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B532">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B533">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B534">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B535">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B536">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B537">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B538">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B539">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B540">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B541">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B542">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B543">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B544">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B545">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B546">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B547">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B548">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B549">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B550">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B551">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B552">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B553">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B554">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B555">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B556">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B557">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B558">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B559">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B560">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B561">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B562">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B563">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B564">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B565">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B566">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B567">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B568">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B569">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B570">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B571">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B572">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B573">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B574">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B575">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B576">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B577">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B578">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B579">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B580">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B581">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B582">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B583">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B584">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B585">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B586">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B587">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B588">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B589">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B590">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B591">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B592">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B593">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B594">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B595">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B596">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B597">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B598">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B599">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B600">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B601">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B602">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B603">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B604">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B605">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B606">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B607">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B608">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B609">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B610">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B611">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B612">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B613">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B614">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B615">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B616">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B617">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B618">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B619">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B620">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B621">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B622">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B623">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B624">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B625">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B626">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B627">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B628">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B629">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B630">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B631">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B632">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B633">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B634">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B635">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B636">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B637">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B638">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B639">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B640">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B641">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B642">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B643">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B644">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B645">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B646">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B647">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B648">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B649">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B650">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B651">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B652">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B653">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B654">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B655">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B656">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B657">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B658">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B659">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B660">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B661">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B662">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B663">
+        <v>64119</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B664">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B665">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B666">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B667">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B668">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B669">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B670">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B671">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B672">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B673">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B674">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B675">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B676">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B677">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B678">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B679">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B680">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B681">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B682">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B683">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B684">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B685">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B686">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B687">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B688">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B689">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B690">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B691">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B692">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B693">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B694">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B695">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B696">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B697">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B698">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B699">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B700">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B701">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B702">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B703">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B704">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B705">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B706">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B707">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B708">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B709">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B710">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B711">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B712">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B713">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B714">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B715">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B716">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B717">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B718">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B719">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B720">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B721">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B722">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B723">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B724">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B725">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B726">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B727">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B728">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B729">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B730">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B731">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B732">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B733">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B734">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B735">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B736">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B737">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B738">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B739">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B740">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B741">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B742">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B743">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B744">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B745">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B746">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B747">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B748">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B749">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B750">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B751">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B752">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B753">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B754">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B755">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B756">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B757">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B758">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B759">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B760">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B761">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B762">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B763">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B764">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B765">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B766">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B767">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B768">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B769">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B770">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B771">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B772">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B773">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B774">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B775">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B776">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B777">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B778">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B779">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B780">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B781">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B782">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B783">
+        <v>64123</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B784">
+        <v>64124</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B785">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B786">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B787">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B788">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B789">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B790">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B791">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B792">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B793">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B794">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B795">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B796">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B797">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B798">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B799">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B800">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B801">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B802">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B803">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8690626-4C2D-4C33-AE6D-56557F973424}">
+  <dimension ref="B2:D101"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <f>_xlfn.XLOOKUP(B4,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D4" s="6">
+        <f>_xlfn.XLOOKUP(B4,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <f>_xlfn.XLOOKUP(B5,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D5" s="6">
+        <f>_xlfn.XLOOKUP(B5,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <f>_xlfn.XLOOKUP(B6,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D6" s="6">
+        <f>_xlfn.XLOOKUP(B6,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35765</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <f>_xlfn.XLOOKUP(B7,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D7" s="6">
+        <f>_xlfn.XLOOKUP(B7,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <f>_xlfn.XLOOKUP(B8,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D8" s="6">
+        <f>_xlfn.XLOOKUP(B8,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36039</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6">
+        <f>_xlfn.XLOOKUP(B9,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D9" s="6">
+        <f>_xlfn.XLOOKUP(B9,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36312</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6">
+        <f>_xlfn.XLOOKUP(B10,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D10" s="6">
+        <f>_xlfn.XLOOKUP(B10,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6">
+        <f>_xlfn.XLOOKUP(B11,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D11" s="6">
+        <f>_xlfn.XLOOKUP(B11,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6">
+        <f>_xlfn.XLOOKUP(B12,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35400</v>
+      </c>
+      <c r="D12" s="6">
+        <f>_xlfn.XLOOKUP(B12,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <f>_xlfn.XLOOKUP(B13,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D13" s="6">
+        <f>_xlfn.XLOOKUP(B13,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.XLOOKUP(B14,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D14" s="6">
+        <f>_xlfn.XLOOKUP(B14,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6">
+        <f>_xlfn.XLOOKUP(B15,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D15" s="6">
+        <f>_xlfn.XLOOKUP(B15,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35674</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.XLOOKUP(B16,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D16" s="6">
+        <f>_xlfn.XLOOKUP(B16,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6">
+        <f>_xlfn.XLOOKUP(B17,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D17" s="6">
+        <f>_xlfn.XLOOKUP(B17,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6">
+        <f>_xlfn.XLOOKUP(B18,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D18" s="6">
+        <f>_xlfn.XLOOKUP(B18,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6">
+        <f>_xlfn.XLOOKUP(B19,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D19" s="6">
+        <f>_xlfn.XLOOKUP(B19,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6">
+        <f>_xlfn.XLOOKUP(B20,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D20" s="6">
+        <f>_xlfn.XLOOKUP(B20,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37865</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6">
+        <f>_xlfn.XLOOKUP(B21,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35400</v>
+      </c>
+      <c r="D21" s="6">
+        <f>_xlfn.XLOOKUP(B21,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6">
+        <f>_xlfn.XLOOKUP(B22,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D22" s="6">
+        <f>_xlfn.XLOOKUP(B22,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6">
+        <f>_xlfn.XLOOKUP(B23,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D23" s="6">
+        <f>_xlfn.XLOOKUP(B23,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>92</v>
+      </c>
+      <c r="C24" s="6">
+        <f>_xlfn.XLOOKUP(B24,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D24" s="6">
+        <f>_xlfn.XLOOKUP(B24,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36861</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>107</v>
+      </c>
+      <c r="C25" s="6">
+        <f>_xlfn.XLOOKUP(B25,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D25" s="6">
+        <f>_xlfn.XLOOKUP(B25,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35765</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6">
+        <f>_xlfn.XLOOKUP(B26,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D26" s="6">
+        <f>_xlfn.XLOOKUP(B26,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>128</v>
+      </c>
+      <c r="C27" s="6">
+        <f>_xlfn.XLOOKUP(B27,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D27" s="6">
+        <f>_xlfn.XLOOKUP(B27,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35490</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6">
+        <f>_xlfn.XLOOKUP(B28,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D28" s="6">
+        <f>_xlfn.XLOOKUP(B28,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>141</v>
+      </c>
+      <c r="C29" s="6">
+        <f>_xlfn.XLOOKUP(B29,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D29" s="6">
+        <f>_xlfn.XLOOKUP(B29,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>148</v>
+      </c>
+      <c r="C30" s="6">
+        <f>_xlfn.XLOOKUP(B30,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D30" s="6">
+        <f>_xlfn.XLOOKUP(B30,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37622</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>149</v>
+      </c>
+      <c r="C31" s="6">
+        <f>_xlfn.XLOOKUP(B31,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D31" s="6">
+        <f>_xlfn.XLOOKUP(B31,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>153</v>
+      </c>
+      <c r="C32" s="6">
+        <f>_xlfn.XLOOKUP(B32,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D32" s="6">
+        <f>_xlfn.XLOOKUP(B32,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>156</v>
+      </c>
+      <c r="C33" s="6">
+        <f>_xlfn.XLOOKUP(B33,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D33" s="6">
+        <f>_xlfn.XLOOKUP(B33,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35582</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>161</v>
+      </c>
+      <c r="C34" s="6">
+        <f>_xlfn.XLOOKUP(B34,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D34" s="6">
+        <f>_xlfn.XLOOKUP(B34,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35490</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>162</v>
+      </c>
+      <c r="C35" s="6">
+        <f>_xlfn.XLOOKUP(B35,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D35" s="6">
+        <f>_xlfn.XLOOKUP(B35,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36039</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>167</v>
+      </c>
+      <c r="C36" s="6">
+        <f>_xlfn.XLOOKUP(B36,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D36" s="6">
+        <f>_xlfn.XLOOKUP(B36,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>175</v>
+      </c>
+      <c r="C37" s="6">
+        <f>_xlfn.XLOOKUP(B37,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D37" s="6">
+        <f>_xlfn.XLOOKUP(B37,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>178</v>
+      </c>
+      <c r="C38" s="6">
+        <f>_xlfn.XLOOKUP(B38,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D38" s="6">
+        <f>_xlfn.XLOOKUP(B38,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>179</v>
+      </c>
+      <c r="C39" s="6">
+        <f>_xlfn.XLOOKUP(B39,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D39" s="6">
+        <f>_xlfn.XLOOKUP(B39,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36039</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>229</v>
+      </c>
+      <c r="C40" s="6">
+        <f>_xlfn.XLOOKUP(B40,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D40" s="6">
+        <f>_xlfn.XLOOKUP(B40,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>231</v>
+      </c>
+      <c r="C41" s="6">
+        <f>_xlfn.XLOOKUP(B41,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D41" s="6">
+        <f>_xlfn.XLOOKUP(B41,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>236</v>
+      </c>
+      <c r="C42" s="6">
+        <f>_xlfn.XLOOKUP(B42,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D42" s="6">
+        <f>_xlfn.XLOOKUP(B42,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>249</v>
+      </c>
+      <c r="C43" s="6">
+        <f>_xlfn.XLOOKUP(B43,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D43" s="6">
+        <f>_xlfn.XLOOKUP(B43,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>253</v>
+      </c>
+      <c r="C44" s="6">
+        <f>_xlfn.XLOOKUP(B44,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D44" s="6">
+        <f>_xlfn.XLOOKUP(B44,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>255</v>
+      </c>
+      <c r="C45" s="6">
+        <f>_xlfn.XLOOKUP(B45,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D45" s="6">
+        <f>_xlfn.XLOOKUP(B45,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>256</v>
+      </c>
+      <c r="C46" s="6">
+        <f>_xlfn.XLOOKUP(B46,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D46" s="6">
+        <f>_xlfn.XLOOKUP(B46,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>260</v>
+      </c>
+      <c r="C47" s="6">
+        <f>_xlfn.XLOOKUP(B47,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D47" s="6">
+        <f>_xlfn.XLOOKUP(B47,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37591</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>267</v>
+      </c>
+      <c r="C48" s="6">
+        <f>_xlfn.XLOOKUP(B48,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D48" s="6">
+        <f>_xlfn.XLOOKUP(B48,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36770</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>271</v>
+      </c>
+      <c r="C49" s="6">
+        <f>_xlfn.XLOOKUP(B49,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D49" s="6">
+        <f>_xlfn.XLOOKUP(B49,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>273</v>
+      </c>
+      <c r="C50" s="6">
+        <f>_xlfn.XLOOKUP(B50,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D50" s="6">
+        <f>_xlfn.XLOOKUP(B50,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>275</v>
+      </c>
+      <c r="C51" s="6">
+        <f>_xlfn.XLOOKUP(B51,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D51" s="6">
+        <f>_xlfn.XLOOKUP(B51,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36495</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>280</v>
+      </c>
+      <c r="C52" s="6">
+        <f>_xlfn.XLOOKUP(B52,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D52" s="6">
+        <f>_xlfn.XLOOKUP(B52,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>285</v>
+      </c>
+      <c r="C53" s="6">
+        <f>_xlfn.XLOOKUP(B53,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D53" s="6">
+        <f>_xlfn.XLOOKUP(B53,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>287</v>
+      </c>
+      <c r="C54" s="6">
+        <f>_xlfn.XLOOKUP(B54,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D54" s="6">
+        <f>_xlfn.XLOOKUP(B54,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>307</v>
+      </c>
+      <c r="C55" s="6">
+        <f>_xlfn.XLOOKUP(B55,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D55" s="6">
+        <f>_xlfn.XLOOKUP(B55,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35977</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>308</v>
+      </c>
+      <c r="C56" s="6">
+        <f>_xlfn.XLOOKUP(B56,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D56" s="6">
+        <f>_xlfn.XLOOKUP(B56,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>313</v>
+      </c>
+      <c r="C57" s="6">
+        <f>_xlfn.XLOOKUP(B57,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D57" s="6">
+        <f>_xlfn.XLOOKUP(B57,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35674</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>314</v>
+      </c>
+      <c r="C58" s="6">
+        <f>_xlfn.XLOOKUP(B58,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D58" s="6">
+        <f>_xlfn.XLOOKUP(B58,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37408</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>316</v>
+      </c>
+      <c r="C59" s="6">
+        <f>_xlfn.XLOOKUP(B59,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D59" s="6">
+        <f>_xlfn.XLOOKUP(B59,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35674</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>317</v>
+      </c>
+      <c r="C60" s="6">
+        <f>_xlfn.XLOOKUP(B60,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D60" s="6">
+        <f>_xlfn.XLOOKUP(B60,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37561</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>318</v>
+      </c>
+      <c r="C61" s="6">
+        <f>_xlfn.XLOOKUP(B61,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D61" s="6">
+        <f>_xlfn.XLOOKUP(B61,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>320</v>
+      </c>
+      <c r="C62" s="6">
+        <f>_xlfn.XLOOKUP(B62,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35370</v>
+      </c>
+      <c r="D62" s="6">
+        <f>_xlfn.XLOOKUP(B62,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>322</v>
+      </c>
+      <c r="C63" s="6">
+        <f>_xlfn.XLOOKUP(B63,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35582</v>
+      </c>
+      <c r="D63" s="6">
+        <f>_xlfn.XLOOKUP(B63,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>323</v>
+      </c>
+      <c r="C64" s="6">
+        <f>_xlfn.XLOOKUP(B64,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35674</v>
+      </c>
+      <c r="D64" s="6">
+        <f>_xlfn.XLOOKUP(B64,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>324</v>
+      </c>
+      <c r="C65" s="6">
+        <f>_xlfn.XLOOKUP(B65,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35855</v>
+      </c>
+      <c r="D65" s="6">
+        <f>_xlfn.XLOOKUP(B65,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>325</v>
+      </c>
+      <c r="C66" s="6">
+        <f>_xlfn.XLOOKUP(B66,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35855</v>
+      </c>
+      <c r="D66" s="6">
+        <f>_xlfn.XLOOKUP(B66,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>326</v>
+      </c>
+      <c r="C67" s="6">
+        <f>_xlfn.XLOOKUP(B67,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35977</v>
+      </c>
+      <c r="D67" s="6">
+        <f>_xlfn.XLOOKUP(B67,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36951</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>327</v>
+      </c>
+      <c r="C68" s="6">
+        <f>_xlfn.XLOOKUP(B68,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36039</v>
+      </c>
+      <c r="D68" s="6">
+        <f>_xlfn.XLOOKUP(B68,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>328</v>
+      </c>
+      <c r="C69" s="6">
+        <f>_xlfn.XLOOKUP(B69,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35977</v>
+      </c>
+      <c r="D69" s="6">
+        <f>_xlfn.XLOOKUP(B69,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36312</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>329</v>
+      </c>
+      <c r="C70" s="6">
+        <f>_xlfn.XLOOKUP(B70,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35977</v>
+      </c>
+      <c r="D70" s="6">
+        <f>_xlfn.XLOOKUP(B70,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>330</v>
+      </c>
+      <c r="C71" s="6">
+        <f>_xlfn.XLOOKUP(B71,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36220</v>
+      </c>
+      <c r="D71" s="6">
+        <f>_xlfn.XLOOKUP(B71,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>331</v>
+      </c>
+      <c r="C72" s="6">
+        <f>_xlfn.XLOOKUP(B72,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36130</v>
+      </c>
+      <c r="D72" s="6">
+        <f>_xlfn.XLOOKUP(B72,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>332</v>
+      </c>
+      <c r="C73" s="6">
+        <f>_xlfn.XLOOKUP(B73,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36130</v>
+      </c>
+      <c r="D73" s="6">
+        <f>_xlfn.XLOOKUP(B73,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>335</v>
+      </c>
+      <c r="C74" s="6">
+        <f>_xlfn.XLOOKUP(B74,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36495</v>
+      </c>
+      <c r="D74" s="6">
+        <f>_xlfn.XLOOKUP(B74,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>337</v>
+      </c>
+      <c r="C75" s="6">
+        <f>_xlfn.XLOOKUP(B75,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36586</v>
+      </c>
+      <c r="D75" s="6">
+        <f>_xlfn.XLOOKUP(B75,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>38047</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>338</v>
+      </c>
+      <c r="C76" s="6">
+        <f>_xlfn.XLOOKUP(B76,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36586</v>
+      </c>
+      <c r="D76" s="6">
+        <f>_xlfn.XLOOKUP(B76,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>340</v>
+      </c>
+      <c r="C77" s="6">
+        <f>_xlfn.XLOOKUP(B77,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36770</v>
+      </c>
+      <c r="D77" s="6">
+        <f>_xlfn.XLOOKUP(B77,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>386</v>
+      </c>
+      <c r="C78" s="6">
+        <f>_xlfn.XLOOKUP(B78,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>37257</v>
+      </c>
+      <c r="D78" s="6">
+        <f>_xlfn.XLOOKUP(B78,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>387</v>
+      </c>
+      <c r="C79" s="6">
+        <f>_xlfn.XLOOKUP(B79,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>37257</v>
+      </c>
+      <c r="D79" s="6">
+        <f>_xlfn.XLOOKUP(B79,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>39326</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>388</v>
+      </c>
+      <c r="C80" s="6">
+        <f>_xlfn.XLOOKUP(B80,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>37257</v>
+      </c>
+      <c r="D80" s="6">
+        <f>_xlfn.XLOOKUP(B80,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>39965</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>389</v>
+      </c>
+      <c r="C81" s="6">
+        <f>_xlfn.XLOOKUP(B81,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>37561</v>
+      </c>
+      <c r="D81" s="6">
+        <f>_xlfn.XLOOKUP(B81,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>44001</v>
+      </c>
+      <c r="C82" s="6">
+        <f>_xlfn.XLOOKUP(B82,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D82" s="6">
+        <f>_xlfn.XLOOKUP(B82,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>44032</v>
+      </c>
+      <c r="C83" s="6">
+        <f>_xlfn.XLOOKUP(B83,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D83" s="6">
+        <f>_xlfn.XLOOKUP(B83,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>44086</v>
+      </c>
+      <c r="C84" s="6">
+        <f>_xlfn.XLOOKUP(B84,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D84" s="6">
+        <f>_xlfn.XLOOKUP(B84,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37377</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>44087</v>
+      </c>
+      <c r="C85" s="6">
+        <f>_xlfn.XLOOKUP(B85,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D85" s="6">
+        <f>_xlfn.XLOOKUP(B85,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>44089</v>
+      </c>
+      <c r="C86" s="6">
+        <f>_xlfn.XLOOKUP(B86,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D86" s="6">
+        <f>_xlfn.XLOOKUP(B86,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35490</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>44090</v>
+      </c>
+      <c r="C87" s="6">
+        <f>_xlfn.XLOOKUP(B87,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36404</v>
+      </c>
+      <c r="D87" s="6">
+        <f>_xlfn.XLOOKUP(B87,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>44091</v>
+      </c>
+      <c r="C88" s="6">
+        <f>_xlfn.XLOOKUP(B88,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36404</v>
+      </c>
+      <c r="D88" s="6">
+        <f>_xlfn.XLOOKUP(B88,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>40148</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>44093</v>
+      </c>
+      <c r="C89" s="6">
+        <f>_xlfn.XLOOKUP(B89,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36586</v>
+      </c>
+      <c r="D89" s="6">
+        <f>_xlfn.XLOOKUP(B89,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>44096</v>
+      </c>
+      <c r="C90" s="6">
+        <f>_xlfn.XLOOKUP(B90,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>36678</v>
+      </c>
+      <c r="D90" s="6">
+        <f>_xlfn.XLOOKUP(B90,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>44097</v>
+      </c>
+      <c r="C91" s="6">
+        <f>_xlfn.XLOOKUP(B91,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>37226</v>
+      </c>
+      <c r="D91" s="6">
+        <f>_xlfn.XLOOKUP(B91,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37956</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>45008</v>
+      </c>
+      <c r="C92" s="6">
+        <f>_xlfn.XLOOKUP(B92,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D92" s="6">
+        <f>_xlfn.XLOOKUP(B92,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>45085</v>
+      </c>
+      <c r="C93" s="6">
+        <f>_xlfn.XLOOKUP(B93,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D93" s="6">
+        <f>_xlfn.XLOOKUP(B93,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>45118</v>
+      </c>
+      <c r="C94" s="6">
+        <f>_xlfn.XLOOKUP(B94,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D94" s="6">
+        <f>_xlfn.XLOOKUP(B94,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>64025</v>
+      </c>
+      <c r="C95" s="6">
+        <f>_xlfn.XLOOKUP(B95,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D95" s="6">
+        <f>_xlfn.XLOOKUP(B95,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36951</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>64029</v>
+      </c>
+      <c r="C96" s="6">
+        <f>_xlfn.XLOOKUP(B96,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D96" s="6">
+        <f>_xlfn.XLOOKUP(B96,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37135</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>64119</v>
+      </c>
+      <c r="C97" s="6">
+        <f>_xlfn.XLOOKUP(B97,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D97" s="6">
+        <f>_xlfn.XLOOKUP(B97,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36495</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>64123</v>
+      </c>
+      <c r="C98" s="6">
+        <f>_xlfn.XLOOKUP(B98,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D98" s="6">
+        <f>_xlfn.XLOOKUP(B98,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>64124</v>
+      </c>
+      <c r="C99" s="6">
+        <f>_xlfn.XLOOKUP(B99,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D99" s="6">
+        <f>_xlfn.XLOOKUP(B99,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>65201</v>
+      </c>
+      <c r="C100" s="6">
+        <f>_xlfn.XLOOKUP(B100,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35521</v>
+      </c>
+      <c r="D100" s="6">
+        <f>_xlfn.XLOOKUP(B100,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>94026</v>
+      </c>
+      <c r="C101" s="6">
+        <f>_xlfn.XLOOKUP(B101,[1]entsDates!$B$2:$B$186,[1]entsDates!$C$2:$C$186)</f>
+        <v>35490</v>
+      </c>
+      <c r="D101" s="6">
+        <f>_xlfn.XLOOKUP(B101,[1]entsDates!$B$2:$B$186,[1]entsDates!$D$2:$D$186)</f>
+        <v>35855</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B121">
+    <sortCondition ref="B4:B121"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0244D94-51E7-4CBB-849B-E719F8D24596}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>12345.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>1455.5</v>
+      </c>
+      <c r="D3">
+        <f>B3/B1</f>
+        <v>0.11790102955828628</v>
+      </c>
+      <c r="E3">
+        <f>B3/(B1-B6)</f>
+        <v>0.13128342969504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1046.0999999999999</v>
+      </c>
+      <c r="D4">
+        <f>(1/D3)*100</f>
+        <v>848.16901408450713</v>
+      </c>
+      <c r="E4">
+        <f>(1/E3)*100</f>
+        <v>761.71075231879081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B6">
+        <v>1258.4000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D370B9-5C61-411E-9770-AF7E3175CE96}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -22208,7 +29982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8C1C05-A86F-4D55-BD43-332D25FB3AE9}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -22361,7 +30135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6478658B-2144-4809-B578-341663506F38}">
   <dimension ref="A1:CLY4687"/>
   <sheetViews>

--- a/data/DBbanks/Quality control.xlsx
+++ b/data/DBbanks/Quality control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bf72e6496f26e8d/UWA PhD/bankFailure/data/DBbanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{886A062B-FDD3-4D50-B6C9-238CAC80D689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8238651A-CAF4-4757-9AC4-E1CC9ED6D0A2}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{886A062B-FDD3-4D50-B6C9-238CAC80D689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791AFC23-5B8B-4C93-9E66-5F51A311E639}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{55F8BC5E-096C-4E1E-A798-514255AB586E}"/>
   </bookViews>
